--- a/data/pca/factorExposure/factorExposure_2018-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.001475966076370444</v>
+        <v>0.01161500635858552</v>
       </c>
       <c r="C2">
-        <v>0.006668873999418738</v>
+        <v>0.02933107617296322</v>
       </c>
       <c r="D2">
-        <v>0.02597600264744695</v>
+        <v>0.02597910616231326</v>
       </c>
       <c r="E2">
-        <v>-0.04326686998362386</v>
+        <v>-0.01143686218752716</v>
       </c>
       <c r="F2">
-        <v>-0.04906214983396942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01561390844469288</v>
+      </c>
+      <c r="G2">
+        <v>0.02523606437568161</v>
+      </c>
+      <c r="H2">
+        <v>0.03230179358925052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06956749801976406</v>
+        <v>0.06167928251172185</v>
       </c>
       <c r="C3">
-        <v>-0.003075200585397947</v>
+        <v>0.08459874733241478</v>
       </c>
       <c r="D3">
-        <v>-0.01309108059570817</v>
+        <v>0.009179742319947897</v>
       </c>
       <c r="E3">
-        <v>-0.1767065702496898</v>
+        <v>-0.05265827617935022</v>
       </c>
       <c r="F3">
-        <v>-0.2208100755618999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0006005205608162486</v>
+      </c>
+      <c r="G3">
+        <v>0.1105182224538611</v>
+      </c>
+      <c r="H3">
+        <v>0.09019239822552703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03233513361674565</v>
+        <v>0.03811971478044505</v>
       </c>
       <c r="C4">
-        <v>-0.01334064792485237</v>
+        <v>0.06012582961786819</v>
       </c>
       <c r="D4">
-        <v>0.02846458980853833</v>
+        <v>0.01981288996331133</v>
       </c>
       <c r="E4">
-        <v>0.0009356420174097565</v>
+        <v>0.004215953779483366</v>
       </c>
       <c r="F4">
-        <v>-0.05017603758755464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01229591248497776</v>
+      </c>
+      <c r="G4">
+        <v>0.04860288486085241</v>
+      </c>
+      <c r="H4">
+        <v>-0.002065529616744421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04751081805834737</v>
+        <v>0.02207385497687181</v>
       </c>
       <c r="C6">
-        <v>6.929496337398107e-05</v>
+        <v>0.05703217878511363</v>
       </c>
       <c r="D6">
-        <v>0.03894061461567763</v>
+        <v>0.0147361056821895</v>
       </c>
       <c r="E6">
-        <v>0.009441841897158644</v>
+        <v>0.004081178623904957</v>
       </c>
       <c r="F6">
-        <v>-0.04271710367091833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.002731942328688152</v>
+      </c>
+      <c r="G6">
+        <v>0.02733650753972616</v>
+      </c>
+      <c r="H6">
+        <v>0.004950359273505923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02839172159381626</v>
+        <v>0.005281652551716331</v>
       </c>
       <c r="C7">
-        <v>-0.0676720449017396</v>
+        <v>0.02695311017532729</v>
       </c>
       <c r="D7">
-        <v>0.004285547251580008</v>
+        <v>0.0121486110757609</v>
       </c>
       <c r="E7">
-        <v>-7.104072566465822e-05</v>
+        <v>0.01767149935482638</v>
       </c>
       <c r="F7">
-        <v>-0.01484425415353436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.06574666350079529</v>
+      </c>
+      <c r="G7">
+        <v>0.03086603807619347</v>
+      </c>
+      <c r="H7">
+        <v>0.02050065569682298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008805042346791176</v>
+        <v>-0.008031363449779593</v>
       </c>
       <c r="C8">
-        <v>-0.0112629013171217</v>
+        <v>0.0003482685638561943</v>
       </c>
       <c r="D8">
-        <v>0.02295639495555503</v>
+        <v>0.002197754272680659</v>
       </c>
       <c r="E8">
-        <v>-0.005020512214587619</v>
+        <v>-0.003807634088968162</v>
       </c>
       <c r="F8">
-        <v>-0.04435901624936876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.009744591086791553</v>
+      </c>
+      <c r="G8">
+        <v>0.02527226608370221</v>
+      </c>
+      <c r="H8">
+        <v>0.003589193854404596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02881685318576184</v>
+        <v>0.01772911958146111</v>
       </c>
       <c r="C9">
-        <v>-0.01171228439204642</v>
+        <v>0.04160328579590318</v>
       </c>
       <c r="D9">
-        <v>0.03012806146106264</v>
+        <v>0.01443857739058538</v>
       </c>
       <c r="E9">
-        <v>-0.03152869496780795</v>
+        <v>0.000786121026694253</v>
       </c>
       <c r="F9">
-        <v>-0.0500749683287902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01462941657094859</v>
+      </c>
+      <c r="G9">
+        <v>0.02666540595706546</v>
+      </c>
+      <c r="H9">
+        <v>0.02136969838179118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05405440628631973</v>
+        <v>0.1146306069476528</v>
       </c>
       <c r="C10">
-        <v>0.009839029688207671</v>
+        <v>-0.1667481352558104</v>
       </c>
       <c r="D10">
-        <v>-0.1528201626236955</v>
+        <v>-0.02320110848347401</v>
       </c>
       <c r="E10">
-        <v>-0.07495767423273758</v>
+        <v>-0.02664425878772744</v>
       </c>
       <c r="F10">
-        <v>0.00814326596746155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03482714274258782</v>
+      </c>
+      <c r="G10">
+        <v>-0.004857415214042753</v>
+      </c>
+      <c r="H10">
+        <v>0.02771304498234434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02642645465402193</v>
+        <v>0.01628216768815979</v>
       </c>
       <c r="C11">
-        <v>0.003813840690962683</v>
+        <v>0.04588788671354566</v>
       </c>
       <c r="D11">
-        <v>0.04160739873497229</v>
+        <v>0.0006375973732050813</v>
       </c>
       <c r="E11">
-        <v>0.01056839991422233</v>
+        <v>0.008881915625719715</v>
       </c>
       <c r="F11">
-        <v>-0.02023289394007063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.008118846918219473</v>
+      </c>
+      <c r="G11">
+        <v>0.0246749684294575</v>
+      </c>
+      <c r="H11">
+        <v>0.02397642416692846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03351858758902229</v>
+        <v>0.01920497041528325</v>
       </c>
       <c r="C12">
-        <v>-0.0005476161589158899</v>
+        <v>0.04195434870505338</v>
       </c>
       <c r="D12">
-        <v>0.03635454315354293</v>
+        <v>0.00467643568209682</v>
       </c>
       <c r="E12">
-        <v>0.02586457325074612</v>
+        <v>0.01319857679557815</v>
       </c>
       <c r="F12">
-        <v>-0.004071698758675722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.008505508274542346</v>
+      </c>
+      <c r="G12">
+        <v>0.01353190161421386</v>
+      </c>
+      <c r="H12">
+        <v>0.00945882374484645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01303146991305655</v>
+        <v>0.01256135621902609</v>
       </c>
       <c r="C13">
-        <v>0.01008764642657402</v>
+        <v>0.0210501717846931</v>
       </c>
       <c r="D13">
-        <v>0.004140328976466017</v>
+        <v>0.02197584851756028</v>
       </c>
       <c r="E13">
-        <v>-0.02490214446871908</v>
+        <v>-0.01407001442262199</v>
       </c>
       <c r="F13">
-        <v>-0.04844597741428806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01236458754709377</v>
+      </c>
+      <c r="G13">
+        <v>0.04625374777366145</v>
+      </c>
+      <c r="H13">
+        <v>0.02623308822183047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01619858363827413</v>
+        <v>0.004431941866571251</v>
       </c>
       <c r="C14">
-        <v>-0.01620183327560695</v>
+        <v>0.01845311251770118</v>
       </c>
       <c r="D14">
-        <v>0.007714789434854933</v>
+        <v>0.007673599354398727</v>
       </c>
       <c r="E14">
-        <v>-0.004993737172624021</v>
+        <v>0.006467690812416372</v>
       </c>
       <c r="F14">
-        <v>-0.03805762596392191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02490987952833455</v>
+      </c>
+      <c r="G14">
+        <v>0.02259828466782913</v>
+      </c>
+      <c r="H14">
+        <v>0.006225578465230393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02307000836419501</v>
+        <v>0.01548041769975253</v>
       </c>
       <c r="C16">
-        <v>-0.0001781177698922792</v>
+        <v>0.03817215201140988</v>
       </c>
       <c r="D16">
-        <v>0.03984947766355802</v>
+        <v>0.0003637383171060153</v>
       </c>
       <c r="E16">
-        <v>0.009432545393093548</v>
+        <v>0.00625507796907873</v>
       </c>
       <c r="F16">
-        <v>-0.02191361871241944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0009882477905794956</v>
+      </c>
+      <c r="G16">
+        <v>0.02021743288338843</v>
+      </c>
+      <c r="H16">
+        <v>0.01416809532330573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0271686905015575</v>
+        <v>0.01761834686766682</v>
       </c>
       <c r="C19">
-        <v>0.001956624110374572</v>
+        <v>0.04415545296072741</v>
       </c>
       <c r="D19">
-        <v>0.02829347005272401</v>
+        <v>0.01260168057185903</v>
       </c>
       <c r="E19">
-        <v>-0.002531779161888764</v>
+        <v>-0.01654774903704516</v>
       </c>
       <c r="F19">
-        <v>-0.07816454331572058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0007227398075918339</v>
+      </c>
+      <c r="G19">
+        <v>0.06122479064599265</v>
+      </c>
+      <c r="H19">
+        <v>0.01792164754959226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.008584301980453006</v>
+        <v>0.0001475703861147926</v>
       </c>
       <c r="C20">
-        <v>-0.007119181419248373</v>
+        <v>0.01865698353808049</v>
       </c>
       <c r="D20">
-        <v>-0.001796510454251117</v>
+        <v>0.01171796299869971</v>
       </c>
       <c r="E20">
-        <v>-0.01764708423523247</v>
+        <v>-0.01174734122576156</v>
       </c>
       <c r="F20">
-        <v>-0.02640454128941525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.006251836293368093</v>
+      </c>
+      <c r="G20">
+        <v>0.02633970307309338</v>
+      </c>
+      <c r="H20">
+        <v>0.008156918927162242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03520425654532675</v>
+        <v>0.006562515939730768</v>
       </c>
       <c r="C21">
-        <v>-0.02092871719129612</v>
+        <v>0.02160692871295599</v>
       </c>
       <c r="D21">
-        <v>0.01949933918227905</v>
+        <v>0.01435071424798479</v>
       </c>
       <c r="E21">
-        <v>-0.00490759459250938</v>
+        <v>-0.01188261959666541</v>
       </c>
       <c r="F21">
-        <v>-0.03415783850052808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02394209266614441</v>
+      </c>
+      <c r="G21">
+        <v>0.04222202150671549</v>
+      </c>
+      <c r="H21">
+        <v>0.0274732080277618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02131229494413432</v>
+        <v>0.009661233700718161</v>
       </c>
       <c r="C24">
-        <v>0.0005527083095896287</v>
+        <v>0.03869894440260948</v>
       </c>
       <c r="D24">
-        <v>0.03041930182228746</v>
+        <v>0.005591024294943858</v>
       </c>
       <c r="E24">
-        <v>0.008159740351073683</v>
+        <v>0.01148897860496483</v>
       </c>
       <c r="F24">
-        <v>-0.01874439580247409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002252402934757226</v>
+      </c>
+      <c r="G24">
+        <v>0.01980652370336005</v>
+      </c>
+      <c r="H24">
+        <v>0.02173564318406455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0343240315350368</v>
+        <v>0.02602870458036128</v>
       </c>
       <c r="C25">
-        <v>0.001117521789711357</v>
+        <v>0.04783518371080913</v>
       </c>
       <c r="D25">
-        <v>0.03236999004766245</v>
+        <v>0.009008781044944047</v>
       </c>
       <c r="E25">
-        <v>-0.001804122978743565</v>
+        <v>0.01751138764728331</v>
       </c>
       <c r="F25">
-        <v>-0.03071752454389918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.004447072436377962</v>
+      </c>
+      <c r="G25">
+        <v>0.02417623737459847</v>
+      </c>
+      <c r="H25">
+        <v>0.01277970694247332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008833188697940876</v>
+        <v>0.002365162151742795</v>
       </c>
       <c r="C26">
-        <v>-0.008727327538332099</v>
+        <v>0.001867252817564566</v>
       </c>
       <c r="D26">
-        <v>0.0098896992119998</v>
+        <v>0.02321354185369541</v>
       </c>
       <c r="E26">
-        <v>-0.03510122212135344</v>
+        <v>0.00216484155915557</v>
       </c>
       <c r="F26">
-        <v>-0.0247551715091608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01583338395373731</v>
+      </c>
+      <c r="G26">
+        <v>0.01157614939421467</v>
+      </c>
+      <c r="H26">
+        <v>0.01369334158217929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0063356564392634</v>
+        <v>0.00201749266976163</v>
       </c>
       <c r="C27">
-        <v>-0.002763743785406813</v>
+        <v>0.0001565671346658935</v>
       </c>
       <c r="D27">
-        <v>-0.004569306921631445</v>
+        <v>-0.0005414836813258041</v>
       </c>
       <c r="E27">
-        <v>0.004287695901704432</v>
+        <v>-0.001103941860824853</v>
       </c>
       <c r="F27">
-        <v>-0.008845148430340233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.00539397151499717</v>
+      </c>
+      <c r="G27">
+        <v>0.001730182860664376</v>
+      </c>
+      <c r="H27">
+        <v>-0.003741420925058468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09515467174365662</v>
+        <v>0.1590598618327735</v>
       </c>
       <c r="C28">
-        <v>0.01909826025570574</v>
+        <v>-0.2086669877223085</v>
       </c>
       <c r="D28">
-        <v>-0.2219798539697981</v>
+        <v>-0.01798618056307183</v>
       </c>
       <c r="E28">
-        <v>-0.08791164466274916</v>
+        <v>-0.01873357093103683</v>
       </c>
       <c r="F28">
-        <v>0.01373675887681623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04152918101822112</v>
+      </c>
+      <c r="G28">
+        <v>0.002656858660241579</v>
+      </c>
+      <c r="H28">
+        <v>0.02437627572712297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01957352418067183</v>
+        <v>0.01042194398660045</v>
       </c>
       <c r="C29">
-        <v>-0.01255343209688066</v>
+        <v>0.01578246853629669</v>
       </c>
       <c r="D29">
-        <v>0.008787099028572987</v>
+        <v>0.006293056583796908</v>
       </c>
       <c r="E29">
-        <v>-0.004420034929782372</v>
+        <v>0.00580767303423403</v>
       </c>
       <c r="F29">
-        <v>-0.03684106397996165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02391651020718094</v>
+      </c>
+      <c r="G29">
+        <v>0.01412646748009997</v>
+      </c>
+      <c r="H29">
+        <v>-0.001327883213305935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03651352313081471</v>
+        <v>0.03019282658912415</v>
       </c>
       <c r="C30">
-        <v>0.04767860897117625</v>
+        <v>0.08034866018151561</v>
       </c>
       <c r="D30">
-        <v>0.05539025297826005</v>
+        <v>0.02416220949953964</v>
       </c>
       <c r="E30">
-        <v>-0.009289539332207804</v>
+        <v>0.0009398192596003246</v>
       </c>
       <c r="F30">
-        <v>-0.08162181899296186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03967177166619888</v>
+      </c>
+      <c r="G30">
+        <v>0.04043803525360897</v>
+      </c>
+      <c r="H30">
+        <v>0.005818714011865621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04746517298964326</v>
+        <v>0.03284680384882378</v>
       </c>
       <c r="C31">
-        <v>-0.009555084909210488</v>
+        <v>0.0219654443452056</v>
       </c>
       <c r="D31">
-        <v>0.01226010610417708</v>
+        <v>0.001340661762624462</v>
       </c>
       <c r="E31">
-        <v>0.002361382027946757</v>
+        <v>0.008798798525099015</v>
       </c>
       <c r="F31">
-        <v>-0.02013058074438928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.029752014618859</v>
+      </c>
+      <c r="G31">
+        <v>-0.00701782914191757</v>
+      </c>
+      <c r="H31">
+        <v>-0.0004207311949351514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001078966304356824</v>
+        <v>0.00720326975820007</v>
       </c>
       <c r="C32">
-        <v>-0.03051187961820972</v>
+        <v>0.02114899607518604</v>
       </c>
       <c r="D32">
-        <v>0.02578810852599198</v>
+        <v>-0.007531460994580804</v>
       </c>
       <c r="E32">
-        <v>0.005702772391246073</v>
+        <v>0.0006809075630260268</v>
       </c>
       <c r="F32">
-        <v>-0.04756788419644745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0007179512193789652</v>
+      </c>
+      <c r="G32">
+        <v>0.09605487053369904</v>
+      </c>
+      <c r="H32">
+        <v>0.0250444969756047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0304214890337556</v>
+        <v>0.01705691273524409</v>
       </c>
       <c r="C33">
-        <v>0.01920042355031942</v>
+        <v>0.04346502424444596</v>
       </c>
       <c r="D33">
-        <v>0.036956776613226</v>
+        <v>0.01216248787531214</v>
       </c>
       <c r="E33">
-        <v>-0.0148965718827459</v>
+        <v>-0.007505647491880343</v>
       </c>
       <c r="F33">
-        <v>-0.04534845670722693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.003983399493254621</v>
+      </c>
+      <c r="G33">
+        <v>0.01822811909771784</v>
+      </c>
+      <c r="H33">
+        <v>0.02964507237278942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02520875409273753</v>
+        <v>0.0283030503365991</v>
       </c>
       <c r="C34">
-        <v>-0.007729964147054708</v>
+        <v>0.04759951160968004</v>
       </c>
       <c r="D34">
-        <v>0.04052122049823999</v>
+        <v>-0.007697471868067351</v>
       </c>
       <c r="E34">
-        <v>0.01619224583341042</v>
+        <v>0.02188585083956955</v>
       </c>
       <c r="F34">
-        <v>-0.02640199214351795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005173010456600706</v>
+      </c>
+      <c r="G34">
+        <v>0.02490977732696392</v>
+      </c>
+      <c r="H34">
+        <v>0.01505325501340256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01359884546534452</v>
+        <v>0.006112550806317714</v>
       </c>
       <c r="C36">
-        <v>-0.006171311089600562</v>
+        <v>-0.0006574784563258524</v>
       </c>
       <c r="D36">
-        <v>0.002447909512721589</v>
+        <v>0.01040871226986014</v>
       </c>
       <c r="E36">
-        <v>-0.01113105501993956</v>
+        <v>7.95634379778645e-06</v>
       </c>
       <c r="F36">
-        <v>-0.02096104931446788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01239864816989299</v>
+      </c>
+      <c r="G36">
+        <v>0.005975530892870469</v>
+      </c>
+      <c r="H36">
+        <v>0.01054083782258433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02108325869816676</v>
+        <v>0.0263592306618944</v>
       </c>
       <c r="C38">
-        <v>0.0005827182275684282</v>
+        <v>0.01497174938522429</v>
       </c>
       <c r="D38">
-        <v>0.003476709357350856</v>
+        <v>-0.009846887728783921</v>
       </c>
       <c r="E38">
-        <v>-0.03854602023526998</v>
+        <v>0.002537603992217231</v>
       </c>
       <c r="F38">
-        <v>-0.03315487905242351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0122486896179411</v>
+      </c>
+      <c r="G38">
+        <v>0.01262458301010904</v>
+      </c>
+      <c r="H38">
+        <v>0.01101126079289246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01984413109905745</v>
+        <v>0.006743549213769559</v>
       </c>
       <c r="C39">
-        <v>-0.005100204866641263</v>
+        <v>0.08157490426091012</v>
       </c>
       <c r="D39">
-        <v>0.05764778323583046</v>
+        <v>0.0113593158050158</v>
       </c>
       <c r="E39">
-        <v>-0.004280011983016512</v>
+        <v>0.004938470509521478</v>
       </c>
       <c r="F39">
-        <v>-0.04894236565087444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009856002438355032</v>
+      </c>
+      <c r="G39">
+        <v>0.0356682108482813</v>
+      </c>
+      <c r="H39">
+        <v>0.03630022827775425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00729518750198143</v>
+        <v>0.01751527073528243</v>
       </c>
       <c r="C40">
-        <v>0.03789881950918498</v>
+        <v>0.02753767484884238</v>
       </c>
       <c r="D40">
-        <v>0.02973791794369972</v>
+        <v>0.009550757300470799</v>
       </c>
       <c r="E40">
-        <v>0.01600468233899306</v>
+        <v>0.002904760480092779</v>
       </c>
       <c r="F40">
-        <v>-0.02858955276682567</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.041226728759281</v>
+      </c>
+      <c r="G40">
+        <v>0.0276244836499483</v>
+      </c>
+      <c r="H40">
+        <v>0.009015877456865202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009998229478071044</v>
+        <v>0.01200099652166796</v>
       </c>
       <c r="C41">
-        <v>-0.001081278492765531</v>
+        <v>-0.008089437683705354</v>
       </c>
       <c r="D41">
-        <v>-0.01168155027098708</v>
+        <v>0.002462353798372743</v>
       </c>
       <c r="E41">
-        <v>-0.01852335945142371</v>
+        <v>0.004200784258663039</v>
       </c>
       <c r="F41">
-        <v>0.005030675020998423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.008050038855912179</v>
+      </c>
+      <c r="G41">
+        <v>0.002229821110507161</v>
+      </c>
+      <c r="H41">
+        <v>0.0114875669061116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2656383326923766</v>
+        <v>0.06491291059231341</v>
       </c>
       <c r="C42">
-        <v>0.1115713019251329</v>
+        <v>0.1226508629992131</v>
       </c>
       <c r="D42">
-        <v>0.3421639668522907</v>
+        <v>0.1189328062197829</v>
       </c>
       <c r="E42">
-        <v>-0.6220395545210705</v>
+        <v>-0.1292557706724662</v>
       </c>
       <c r="F42">
-        <v>0.5980990054669172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.034785007758582</v>
+      </c>
+      <c r="G42">
+        <v>-0.6945318747565183</v>
+      </c>
+      <c r="H42">
+        <v>0.6670149177818289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01738167714164404</v>
+        <v>0.01678898226880539</v>
       </c>
       <c r="C43">
-        <v>0.0006390750364900375</v>
+        <v>-0.003819652471530473</v>
       </c>
       <c r="D43">
-        <v>-0.005097642136559749</v>
+        <v>0.002867410368965909</v>
       </c>
       <c r="E43">
-        <v>-0.02482484431828245</v>
+        <v>0.001595621689573153</v>
       </c>
       <c r="F43">
-        <v>-0.00590551072613651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.006723182486695169</v>
+      </c>
+      <c r="G43">
+        <v>0.005184154795989447</v>
+      </c>
+      <c r="H43">
+        <v>0.01930750429957375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01229781160482387</v>
+        <v>0.007198714848151763</v>
       </c>
       <c r="C44">
-        <v>-0.01455787646540083</v>
+        <v>0.04214183578453181</v>
       </c>
       <c r="D44">
-        <v>0.02067255704455401</v>
+        <v>0.005864038901010846</v>
       </c>
       <c r="E44">
-        <v>-0.03865061293534611</v>
+        <v>-0.008127319978901426</v>
       </c>
       <c r="F44">
-        <v>-0.0586853925186597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01258260078638769</v>
+      </c>
+      <c r="G44">
+        <v>0.03244105294287148</v>
+      </c>
+      <c r="H44">
+        <v>0.03911809626580406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01649014642130264</v>
+        <v>0.00112622470210808</v>
       </c>
       <c r="C46">
-        <v>-0.007629616305631029</v>
+        <v>0.008861399584095819</v>
       </c>
       <c r="D46">
-        <v>0.03506827431138442</v>
+        <v>0.01111920106036898</v>
       </c>
       <c r="E46">
-        <v>-0.009359985804623647</v>
+        <v>-0.001112228320418346</v>
       </c>
       <c r="F46">
-        <v>-0.06448383005148382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01707717043661226</v>
+      </c>
+      <c r="G46">
+        <v>0.01306266811214389</v>
+      </c>
+      <c r="H46">
+        <v>0.004474382734616369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06996639188957647</v>
+        <v>0.05581577082560443</v>
       </c>
       <c r="C47">
-        <v>0.0103149592061583</v>
+        <v>0.0556256735876298</v>
       </c>
       <c r="D47">
-        <v>0.01463341151594441</v>
+        <v>-0.006975182197298102</v>
       </c>
       <c r="E47">
-        <v>0.02128741341432758</v>
+        <v>0.006122828928315557</v>
       </c>
       <c r="F47">
-        <v>0.007746906753514286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03172312458200093</v>
+      </c>
+      <c r="G47">
+        <v>-0.02688314060912004</v>
+      </c>
+      <c r="H47">
+        <v>-0.02337547574271035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02321219726366269</v>
+        <v>0.009538395266489931</v>
       </c>
       <c r="C48">
-        <v>-0.006348436266294992</v>
+        <v>0.004887636658274252</v>
       </c>
       <c r="D48">
-        <v>0.006099961522810888</v>
+        <v>0.0005775276899279427</v>
       </c>
       <c r="E48">
-        <v>-0.009615963512904384</v>
+        <v>0.001488620305584319</v>
       </c>
       <c r="F48">
-        <v>-0.02144046730175237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01917665773795515</v>
+      </c>
+      <c r="G48">
+        <v>0.001757238872377653</v>
+      </c>
+      <c r="H48">
+        <v>0.005480044888861576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08241789820775659</v>
+        <v>0.05810811048462427</v>
       </c>
       <c r="C50">
-        <v>-0.0187951795063043</v>
+        <v>0.05266869087574164</v>
       </c>
       <c r="D50">
-        <v>0.03621515364265007</v>
+        <v>-0.005862602416034111</v>
       </c>
       <c r="E50">
-        <v>0.0139051566401868</v>
+        <v>0.007756534181389776</v>
       </c>
       <c r="F50">
-        <v>-0.02612896559443367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05839571056831521</v>
+      </c>
+      <c r="G50">
+        <v>-0.01538179026720505</v>
+      </c>
+      <c r="H50">
+        <v>-0.01785819239915503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007665673605514761</v>
+        <v>0.007091809296589316</v>
       </c>
       <c r="C51">
-        <v>-0.008047508518826999</v>
+        <v>0.01533271948763851</v>
       </c>
       <c r="D51">
-        <v>-0.0132834259580536</v>
+        <v>0.007556599386806793</v>
       </c>
       <c r="E51">
-        <v>-0.04383416472264674</v>
+        <v>0.005437704460584509</v>
       </c>
       <c r="F51">
-        <v>-0.0595965381707536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01115174884063894</v>
+      </c>
+      <c r="G51">
+        <v>0.03306437023273329</v>
+      </c>
+      <c r="H51">
+        <v>0.03423213913757685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1008725016408427</v>
+        <v>0.07877457592064034</v>
       </c>
       <c r="C53">
-        <v>0.006800975098866331</v>
+        <v>0.08365914931667089</v>
       </c>
       <c r="D53">
-        <v>0.0417223829957763</v>
+        <v>-0.00815717419861813</v>
       </c>
       <c r="E53">
-        <v>0.06557892496891582</v>
+        <v>0.03023614942324229</v>
       </c>
       <c r="F53">
-        <v>0.008961111745984745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.03643261177542988</v>
+      </c>
+      <c r="G53">
+        <v>-0.03914542455372689</v>
+      </c>
+      <c r="H53">
+        <v>-0.03620736451057313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02778173474548118</v>
+        <v>0.01955535795788176</v>
       </c>
       <c r="C54">
-        <v>-0.0114420928159723</v>
+        <v>-0.001027304452363338</v>
       </c>
       <c r="D54">
-        <v>-0.007494501288581505</v>
+        <v>-0.005126494708538473</v>
       </c>
       <c r="E54">
-        <v>-0.002632713586364086</v>
+        <v>-0.002040642074450128</v>
       </c>
       <c r="F54">
-        <v>-0.02179230633309691</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02362812676419483</v>
+      </c>
+      <c r="G54">
+        <v>0.01536406743288172</v>
+      </c>
+      <c r="H54">
+        <v>0.006434062039501858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07535310019453401</v>
+        <v>0.05305871899698859</v>
       </c>
       <c r="C55">
-        <v>0.009658756040228903</v>
+        <v>0.07050116456847358</v>
       </c>
       <c r="D55">
-        <v>0.06037168338342736</v>
+        <v>-0.005972707341966465</v>
       </c>
       <c r="E55">
-        <v>0.04157416231606878</v>
+        <v>0.01837264983388179</v>
       </c>
       <c r="F55">
-        <v>0.01253310188102862</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02871317641586863</v>
+      </c>
+      <c r="G55">
+        <v>-0.0438603869648962</v>
+      </c>
+      <c r="H55">
+        <v>-0.03414921682713758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1370567439227122</v>
+        <v>0.1173524494240253</v>
       </c>
       <c r="C56">
-        <v>0.02113669746336903</v>
+        <v>0.1151149441726568</v>
       </c>
       <c r="D56">
-        <v>0.05436022482512028</v>
+        <v>-0.01753893580358785</v>
       </c>
       <c r="E56">
-        <v>0.09459949068028906</v>
+        <v>0.0313127311565864</v>
       </c>
       <c r="F56">
-        <v>0.03869173335453382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.03228016078577044</v>
+      </c>
+      <c r="G56">
+        <v>-0.06957479657055085</v>
+      </c>
+      <c r="H56">
+        <v>-0.07303700887884935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03759513491107259</v>
+        <v>0.01746315012745871</v>
       </c>
       <c r="C57">
-        <v>0.00809247791919766</v>
+        <v>0.01821937459973028</v>
       </c>
       <c r="D57">
-        <v>0.01689757848861994</v>
+        <v>0.02321130410953658</v>
       </c>
       <c r="E57">
-        <v>-0.04932136838987791</v>
+        <v>-0.03017925346458521</v>
       </c>
       <c r="F57">
-        <v>-0.03041025670982971</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.006937629667892031</v>
+      </c>
+      <c r="G57">
+        <v>0.03574530433864743</v>
+      </c>
+      <c r="H57">
+        <v>0.02717847822982167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.185392461881829</v>
+        <v>0.06799149442445768</v>
       </c>
       <c r="C58">
-        <v>0.1325293189282794</v>
+        <v>0.1449800158789371</v>
       </c>
       <c r="D58">
-        <v>0.2210331976089417</v>
+        <v>0.01606975239370943</v>
       </c>
       <c r="E58">
-        <v>-0.3355002837341415</v>
+        <v>-0.9614963673768631</v>
       </c>
       <c r="F58">
-        <v>-0.6159355775579932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.03777725864987209</v>
+      </c>
+      <c r="G58">
+        <v>0.0956452826243558</v>
+      </c>
+      <c r="H58">
+        <v>-0.1288326718859362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08732317312342248</v>
+        <v>0.1860339019939084</v>
       </c>
       <c r="C59">
-        <v>0.03959898848962277</v>
+        <v>-0.1900159632143486</v>
       </c>
       <c r="D59">
-        <v>-0.1857287879631982</v>
+        <v>-0.02570238785380026</v>
       </c>
       <c r="E59">
-        <v>-0.07255619853896636</v>
+        <v>-0.01747851675962248</v>
       </c>
       <c r="F59">
-        <v>-0.03428321112640942</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.006361239824054396</v>
+      </c>
+      <c r="G59">
+        <v>0.02264498474028671</v>
+      </c>
+      <c r="H59">
+        <v>0.02001206333788458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1734679539944857</v>
+        <v>0.2742814443723826</v>
       </c>
       <c r="C60">
-        <v>0.06773782134701493</v>
+        <v>0.1161669735022975</v>
       </c>
       <c r="D60">
-        <v>-0.01986912673385147</v>
+        <v>-0.00897762276408666</v>
       </c>
       <c r="E60">
-        <v>-0.04964663572750599</v>
+        <v>0.07011530534540378</v>
       </c>
       <c r="F60">
-        <v>-0.1130804669194479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2191646919694182</v>
+      </c>
+      <c r="G60">
+        <v>0.2753969209059535</v>
+      </c>
+      <c r="H60">
+        <v>0.2092092264753984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02555921170051294</v>
+        <v>0.0154569300804709</v>
       </c>
       <c r="C61">
-        <v>-0.001325485284074929</v>
+        <v>0.06381830671645342</v>
       </c>
       <c r="D61">
-        <v>0.04558079781683242</v>
+        <v>0.004088495174939109</v>
       </c>
       <c r="E61">
-        <v>-0.004493283600086907</v>
+        <v>0.007580542753101472</v>
       </c>
       <c r="F61">
-        <v>-0.02179926668990587</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.003568693420839501</v>
+      </c>
+      <c r="G61">
+        <v>0.03328617401426034</v>
+      </c>
+      <c r="H61">
+        <v>0.02316807256031913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01503878428895024</v>
+        <v>0.007674944843085337</v>
       </c>
       <c r="C63">
-        <v>-0.006955795992328525</v>
+        <v>0.02367619315001472</v>
       </c>
       <c r="D63">
-        <v>0.01919336625213675</v>
+        <v>0.007160895894901601</v>
       </c>
       <c r="E63">
-        <v>0.001273249721852983</v>
+        <v>0.01444509818419976</v>
       </c>
       <c r="F63">
-        <v>-0.009429269820989862</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01755040052938887</v>
+      </c>
+      <c r="G63">
+        <v>0.009138680475926362</v>
+      </c>
+      <c r="H63">
+        <v>-0.00123288130113236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04045942913696671</v>
+        <v>0.03714281108058658</v>
       </c>
       <c r="C64">
-        <v>-0.0007092656258705473</v>
+        <v>0.04006425249468769</v>
       </c>
       <c r="D64">
-        <v>0.02791294775329379</v>
+        <v>0.00247996704699472</v>
       </c>
       <c r="E64">
-        <v>0.0001454962949843304</v>
+        <v>0.01726922182285909</v>
       </c>
       <c r="F64">
-        <v>-0.02279126699957561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.006000139039528917</v>
+      </c>
+      <c r="G64">
+        <v>0.004374202012430232</v>
+      </c>
+      <c r="H64">
+        <v>0.02314986051741002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05251229838301618</v>
+        <v>0.06073595161485228</v>
       </c>
       <c r="C65">
-        <v>0.0002000090297910841</v>
+        <v>0.08523085039838019</v>
       </c>
       <c r="D65">
-        <v>0.04120710450516574</v>
+        <v>0.01292356952551786</v>
       </c>
       <c r="E65">
-        <v>0.01584723531164777</v>
+        <v>0.01770941417020278</v>
       </c>
       <c r="F65">
-        <v>-0.03853526532423478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01610871474566351</v>
+      </c>
+      <c r="G65">
+        <v>0.04336398975015217</v>
+      </c>
+      <c r="H65">
+        <v>0.004716280186608596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03921755299500184</v>
+        <v>0.02424607232162214</v>
       </c>
       <c r="C66">
-        <v>0.01237710991966388</v>
+        <v>0.1179246178036464</v>
       </c>
       <c r="D66">
-        <v>0.06673065728262241</v>
+        <v>0.009025073566944928</v>
       </c>
       <c r="E66">
-        <v>0.03652126488655155</v>
+        <v>0.009530146491679681</v>
       </c>
       <c r="F66">
-        <v>-0.06487977896681062</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02562287563535812</v>
+      </c>
+      <c r="G66">
+        <v>0.05307460253547076</v>
+      </c>
+      <c r="H66">
+        <v>0.01677755917229012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0322332834991766</v>
+        <v>0.04980154874380129</v>
       </c>
       <c r="C67">
-        <v>0.005587962184828567</v>
+        <v>0.02224701848953877</v>
       </c>
       <c r="D67">
-        <v>-0.005455378625226689</v>
+        <v>-0.009401474783741382</v>
       </c>
       <c r="E67">
-        <v>-0.02216673151060889</v>
+        <v>0.009237273137038711</v>
       </c>
       <c r="F67">
-        <v>-0.02216744699229168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01132571698581802</v>
+      </c>
+      <c r="G67">
+        <v>0.01613310899710588</v>
+      </c>
+      <c r="H67">
+        <v>0.002687064906792232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09208635861629123</v>
+        <v>0.1779150648229918</v>
       </c>
       <c r="C68">
-        <v>0.04160920391005129</v>
+        <v>-0.2369518845106768</v>
       </c>
       <c r="D68">
-        <v>-0.2139117613436009</v>
+        <v>-0.007362011202876982</v>
       </c>
       <c r="E68">
-        <v>-0.07233076204594553</v>
+        <v>-0.02871083968817701</v>
       </c>
       <c r="F68">
-        <v>-0.008899999627907326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02456351699363309</v>
+      </c>
+      <c r="G68">
+        <v>-0.01492654135418997</v>
+      </c>
+      <c r="H68">
+        <v>0.01218838417900428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05683212693542909</v>
+        <v>0.05652377246278253</v>
       </c>
       <c r="C69">
-        <v>0.01331606698159955</v>
+        <v>0.05097298286280202</v>
       </c>
       <c r="D69">
-        <v>0.02062425445042617</v>
+        <v>-0.01165506523880704</v>
       </c>
       <c r="E69">
-        <v>0.02848695878648551</v>
+        <v>0.02742956536294989</v>
       </c>
       <c r="F69">
-        <v>-0.008278918383204659</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0115153232475665</v>
+      </c>
+      <c r="G69">
+        <v>-0.006937506704142176</v>
+      </c>
+      <c r="H69">
+        <v>-0.01437626732526663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08899001239160172</v>
+        <v>0.159600692513935</v>
       </c>
       <c r="C71">
-        <v>0.02359159111455041</v>
+        <v>-0.1975168984062231</v>
       </c>
       <c r="D71">
-        <v>-0.2044445880101133</v>
+        <v>-0.01320308957391829</v>
       </c>
       <c r="E71">
-        <v>-0.115865988140174</v>
+        <v>-0.04239354179636263</v>
       </c>
       <c r="F71">
-        <v>0.02440654523630161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0425713250840413</v>
+      </c>
+      <c r="G71">
+        <v>-0.01921505435873963</v>
+      </c>
+      <c r="H71">
+        <v>0.0303559636957573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09841560190945116</v>
+        <v>0.062894293099371</v>
       </c>
       <c r="C72">
-        <v>0.01842926063535765</v>
+        <v>0.08936647544880226</v>
       </c>
       <c r="D72">
-        <v>0.09330044990791567</v>
+        <v>-0.01303409395420529</v>
       </c>
       <c r="E72">
-        <v>0.0393027708010124</v>
+        <v>0.03305078297786498</v>
       </c>
       <c r="F72">
-        <v>-0.1521937885795064</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03438546629014114</v>
+      </c>
+      <c r="G72">
+        <v>0.04864205661800136</v>
+      </c>
+      <c r="H72">
+        <v>-0.002767901527518725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2184195476378474</v>
+        <v>0.3547897454092543</v>
       </c>
       <c r="C73">
-        <v>0.1183777948468735</v>
+        <v>0.1873486919261958</v>
       </c>
       <c r="D73">
-        <v>0.0186495466851508</v>
+        <v>-0.004467054552525386</v>
       </c>
       <c r="E73">
-        <v>-0.1131492632392418</v>
+        <v>0.05464052757449503</v>
       </c>
       <c r="F73">
-        <v>-0.118484839116052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2861953762129741</v>
+      </c>
+      <c r="G73">
+        <v>0.3204365244946064</v>
+      </c>
+      <c r="H73">
+        <v>0.2903400001310807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1301070831956935</v>
+        <v>0.1071253621077169</v>
       </c>
       <c r="C74">
-        <v>0.02450280390232425</v>
+        <v>0.1206015531172055</v>
       </c>
       <c r="D74">
-        <v>0.05036595897336314</v>
+        <v>-0.01573193493220412</v>
       </c>
       <c r="E74">
-        <v>0.08001041191064064</v>
+        <v>0.03523281199579222</v>
       </c>
       <c r="F74">
-        <v>0.03643585623741789</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03972275246488778</v>
+      </c>
+      <c r="G74">
+        <v>-0.05060965529919412</v>
+      </c>
+      <c r="H74">
+        <v>-0.05352073670598425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2460832684540742</v>
+        <v>0.2270528804625592</v>
       </c>
       <c r="C75">
-        <v>0.05393455877403674</v>
+        <v>0.1910024949837815</v>
       </c>
       <c r="D75">
-        <v>0.07059339257546027</v>
+        <v>-0.03745583940890242</v>
       </c>
       <c r="E75">
-        <v>0.1962545712624371</v>
+        <v>0.03922936111501676</v>
       </c>
       <c r="F75">
-        <v>0.01434637004742294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.05727301866734398</v>
+      </c>
+      <c r="G75">
+        <v>-0.1319170070539016</v>
+      </c>
+      <c r="H75">
+        <v>-0.1681764346959538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2655748052474623</v>
+        <v>0.1459005634946599</v>
       </c>
       <c r="C76">
-        <v>0.03731172285167734</v>
+        <v>0.1561236639357239</v>
       </c>
       <c r="D76">
-        <v>0.08324265147199686</v>
+        <v>-0.02930090059449634</v>
       </c>
       <c r="E76">
-        <v>0.2487514240626979</v>
+        <v>0.05991005309469226</v>
       </c>
       <c r="F76">
-        <v>0.07063684983234972</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.07573469632476686</v>
+      </c>
+      <c r="G76">
+        <v>-0.1123486368206801</v>
+      </c>
+      <c r="H76">
+        <v>-0.1348144186861864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08754940396999146</v>
+        <v>0.04739672237483949</v>
       </c>
       <c r="C77">
-        <v>0.02291386724601941</v>
+        <v>0.07125491418047721</v>
       </c>
       <c r="D77">
-        <v>0.08054740652404811</v>
+        <v>0.01153835323480919</v>
       </c>
       <c r="E77">
-        <v>-0.0998953970812998</v>
+        <v>-0.03176598576070562</v>
       </c>
       <c r="F77">
-        <v>-0.0302945835849723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02377571012391252</v>
+      </c>
+      <c r="G77">
+        <v>-0.01806742236382478</v>
+      </c>
+      <c r="H77">
+        <v>0.01893340857740989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02882559931808641</v>
+        <v>0.02848289699623308</v>
       </c>
       <c r="C78">
-        <v>-0.007537227818389896</v>
+        <v>0.06169746556852818</v>
       </c>
       <c r="D78">
-        <v>0.05959314643114265</v>
+        <v>0.004079261495334309</v>
       </c>
       <c r="E78">
-        <v>-0.01219545222448733</v>
+        <v>-0.003860821205987333</v>
       </c>
       <c r="F78">
-        <v>-0.06834999148605839</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.006593649003622381</v>
+      </c>
+      <c r="G78">
+        <v>0.04854918687360642</v>
+      </c>
+      <c r="H78">
+        <v>0.02442909430031965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.3053246972681182</v>
+        <v>0.07163494482736436</v>
       </c>
       <c r="C80">
-        <v>-0.9306728128835571</v>
+        <v>0.09568535739699047</v>
       </c>
       <c r="D80">
-        <v>-0.04947119759832493</v>
+        <v>0.01040986208348059</v>
       </c>
       <c r="E80">
-        <v>-0.08708795157738468</v>
+        <v>0.06653985995480208</v>
       </c>
       <c r="F80">
-        <v>-0.01839595033570118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.882288802578165</v>
+      </c>
+      <c r="G80">
+        <v>0.2917751707942479</v>
+      </c>
+      <c r="H80">
+        <v>0.2341393899949248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1988834884635012</v>
+        <v>0.1355768662086878</v>
       </c>
       <c r="C81">
-        <v>0.03487943814447261</v>
+        <v>0.1182452754062391</v>
       </c>
       <c r="D81">
-        <v>0.03702852253795123</v>
+        <v>-0.02173762988621318</v>
       </c>
       <c r="E81">
-        <v>0.1513768559701476</v>
+        <v>0.02281223878707997</v>
       </c>
       <c r="F81">
-        <v>0.001355665025394575</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05580148053614515</v>
+      </c>
+      <c r="G81">
+        <v>-0.07756310538736545</v>
+      </c>
+      <c r="H81">
+        <v>-0.0973290446439153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.01270486761460513</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01019510669857273</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.001198235823684601</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01506776982842464</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.006520161541541126</v>
+      </c>
+      <c r="G82">
+        <v>0.007242547777769493</v>
+      </c>
+      <c r="H82">
+        <v>0.002730189225592111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02746167148100809</v>
+        <v>0.02215798521263205</v>
       </c>
       <c r="C83">
-        <v>0.003249360947386439</v>
+        <v>0.01920208691185601</v>
       </c>
       <c r="D83">
-        <v>0.01328128784730081</v>
+        <v>0.00411585394522818</v>
       </c>
       <c r="E83">
-        <v>-0.03711221476646763</v>
+        <v>-0.01578308072721804</v>
       </c>
       <c r="F83">
-        <v>-0.03700839838956722</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.004655943429915816</v>
+      </c>
+      <c r="G83">
+        <v>0.03696848318608336</v>
+      </c>
+      <c r="H83">
+        <v>0.02509479883706008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.24326485270742</v>
+        <v>0.2217611565813924</v>
       </c>
       <c r="C85">
-        <v>0.05969817426324991</v>
+        <v>0.2036006920929255</v>
       </c>
       <c r="D85">
-        <v>0.0937898474072115</v>
+        <v>-0.02581214368773065</v>
       </c>
       <c r="E85">
-        <v>0.2248199481194739</v>
+        <v>0.07054808258385595</v>
       </c>
       <c r="F85">
-        <v>0.03951112198253109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01289551339021692</v>
+      </c>
+      <c r="G85">
+        <v>-0.1341998816548651</v>
+      </c>
+      <c r="H85">
+        <v>-0.1638028001027352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005194036878724414</v>
+        <v>0.007681814337769179</v>
       </c>
       <c r="C86">
-        <v>-0.01016090566754327</v>
+        <v>0.02322563032434609</v>
       </c>
       <c r="D86">
-        <v>0.04198536695857081</v>
+        <v>0.008568831356648666</v>
       </c>
       <c r="E86">
-        <v>-0.02745934981406551</v>
+        <v>-0.006122541030235705</v>
       </c>
       <c r="F86">
-        <v>-0.0701647703909021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0252672527214834</v>
+      </c>
+      <c r="G86">
+        <v>0.02826273576040929</v>
+      </c>
+      <c r="H86">
+        <v>0.05127541954651156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03297275261761166</v>
+        <v>0.00573871908088153</v>
       </c>
       <c r="C87">
-        <v>-0.002241051047855477</v>
+        <v>0.03557613485485019</v>
       </c>
       <c r="D87">
-        <v>0.04417471883662581</v>
+        <v>0.01021187691438268</v>
       </c>
       <c r="E87">
-        <v>-0.04998929197082088</v>
+        <v>-0.04154089590248606</v>
       </c>
       <c r="F87">
-        <v>-0.07273804960965405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.006565793701305971</v>
+      </c>
+      <c r="G87">
+        <v>0.049724871007206</v>
+      </c>
+      <c r="H87">
+        <v>0.04880027483986463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0439586307572265</v>
+        <v>0.0607217704602124</v>
       </c>
       <c r="C88">
-        <v>0.005336211322954019</v>
+        <v>0.04131531120440177</v>
       </c>
       <c r="D88">
-        <v>-0.002878563861110111</v>
+        <v>0.01874879561468901</v>
       </c>
       <c r="E88">
-        <v>-0.007703729672409915</v>
+        <v>0.00947851690967662</v>
       </c>
       <c r="F88">
-        <v>0.01374145759925513</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.00358648245601157</v>
+      </c>
+      <c r="G88">
+        <v>0.03097518454297456</v>
+      </c>
+      <c r="H88">
+        <v>0.01823045063835038</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1548250141273216</v>
+        <v>0.2807816682583867</v>
       </c>
       <c r="C89">
-        <v>0.08143663105394677</v>
+        <v>-0.3321488530789172</v>
       </c>
       <c r="D89">
-        <v>-0.3641768572476251</v>
+        <v>-0.02224666704256397</v>
       </c>
       <c r="E89">
-        <v>-0.07358701533012263</v>
+        <v>-0.01582775360191149</v>
       </c>
       <c r="F89">
-        <v>-0.02605486721196703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01327477626417637</v>
+      </c>
+      <c r="G89">
+        <v>-0.0116704018943981</v>
+      </c>
+      <c r="H89">
+        <v>-0.001752041177297451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1012912542933964</v>
+        <v>0.2297489652994678</v>
       </c>
       <c r="C90">
-        <v>0.06769019335171217</v>
+        <v>-0.2984144829564644</v>
       </c>
       <c r="D90">
-        <v>-0.3273212662318196</v>
+        <v>-0.02096675905689334</v>
       </c>
       <c r="E90">
-        <v>-0.07473825643432563</v>
+        <v>-0.02930337788748219</v>
       </c>
       <c r="F90">
-        <v>0.02784391905111578</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01835515083345951</v>
+      </c>
+      <c r="G90">
+        <v>-0.04746246095495622</v>
+      </c>
+      <c r="H90">
+        <v>-0.01251657184335026</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2872697541213065</v>
+        <v>0.1992685048158935</v>
       </c>
       <c r="C91">
-        <v>0.07596625008282328</v>
+        <v>0.1606530450510571</v>
       </c>
       <c r="D91">
-        <v>0.09726207519770363</v>
+        <v>-0.03327793615431802</v>
       </c>
       <c r="E91">
-        <v>0.2336508601354252</v>
+        <v>0.0536096103921689</v>
       </c>
       <c r="F91">
-        <v>0.1196594221431592</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.05557675295651814</v>
+      </c>
+      <c r="G91">
+        <v>-0.1429607690850106</v>
+      </c>
+      <c r="H91">
+        <v>-0.1474043447737278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.212941739697937</v>
+        <v>0.2506006227261622</v>
       </c>
       <c r="C92">
-        <v>0.09013671535085001</v>
+        <v>-0.2369376880111141</v>
       </c>
       <c r="D92">
-        <v>-0.3727878773626822</v>
+        <v>-0.06377038192256451</v>
       </c>
       <c r="E92">
-        <v>0.0341825017156208</v>
+        <v>-0.04085201808069206</v>
       </c>
       <c r="F92">
-        <v>0.02123943139174384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08435886687072527</v>
+      </c>
+      <c r="G92">
+        <v>-0.07674526565165164</v>
+      </c>
+      <c r="H92">
+        <v>-0.09713725920251079</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1462545862756131</v>
+        <v>0.2659693679969884</v>
       </c>
       <c r="C93">
-        <v>0.09765394628600811</v>
+        <v>-0.2905744103027987</v>
       </c>
       <c r="D93">
-        <v>-0.382674822531512</v>
+        <v>-0.0300747747030419</v>
       </c>
       <c r="E93">
-        <v>-0.1214858979066715</v>
+        <v>-0.03572928711959477</v>
       </c>
       <c r="F93">
-        <v>0.06412297540193437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.000559394437587696</v>
+      </c>
+      <c r="G93">
+        <v>-0.02724020284900034</v>
+      </c>
+      <c r="H93">
+        <v>0.02688392533314458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3124365783669856</v>
+        <v>0.2585900616506813</v>
       </c>
       <c r="C94">
-        <v>0.1004032052589981</v>
+        <v>0.2043873948452358</v>
       </c>
       <c r="D94">
-        <v>0.060248603211499</v>
+        <v>-0.02253241079439151</v>
       </c>
       <c r="E94">
-        <v>0.2592066501600749</v>
+        <v>0.06312953012188349</v>
       </c>
       <c r="F94">
-        <v>0.00855454879173482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.04131828830674088</v>
+      </c>
+      <c r="G94">
+        <v>-0.222350185705965</v>
+      </c>
+      <c r="H94">
+        <v>-0.3679866047496628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0574824879545246</v>
+        <v>0.07759098487621517</v>
       </c>
       <c r="C95">
-        <v>0.07187409192720956</v>
+        <v>0.1175535733046442</v>
       </c>
       <c r="D95">
-        <v>0.03161072652617582</v>
+        <v>-0.01157563622888751</v>
       </c>
       <c r="E95">
-        <v>-0.01826816895882527</v>
+        <v>-0.01994435391276325</v>
       </c>
       <c r="F95">
-        <v>-0.0004496838462176831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1062817433797167</v>
+      </c>
+      <c r="G95">
+        <v>0.05530096180387938</v>
+      </c>
+      <c r="H95">
+        <v>0.08157942809445863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1797991130027852</v>
+        <v>0.195224399049143</v>
       </c>
       <c r="C98">
-        <v>0.07692141704159022</v>
+        <v>0.07012354279857907</v>
       </c>
       <c r="D98">
-        <v>-0.02779569437135208</v>
+        <v>-0.02869790839502486</v>
       </c>
       <c r="E98">
-        <v>-0.1191984955318415</v>
+        <v>-0.00895326232076081</v>
       </c>
       <c r="F98">
-        <v>-0.1147181009615701</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1384943580999407</v>
+      </c>
+      <c r="G98">
+        <v>0.1607825734429948</v>
+      </c>
+      <c r="H98">
+        <v>0.192862508643703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002044191075400224</v>
+        <v>0.004302360858986235</v>
       </c>
       <c r="C101">
-        <v>-0.009544809807911508</v>
+        <v>0.01640873079284264</v>
       </c>
       <c r="D101">
-        <v>0.0347101986487849</v>
+        <v>0.007327008570595759</v>
       </c>
       <c r="E101">
-        <v>-0.06005968250264544</v>
+        <v>-0.03077369463285569</v>
       </c>
       <c r="F101">
-        <v>-0.1806465681624852</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02391434151036499</v>
+      </c>
+      <c r="G101">
+        <v>0.03022525022699155</v>
+      </c>
+      <c r="H101">
+        <v>-0.01175845166815631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1286133769566723</v>
+        <v>0.1146639494682778</v>
       </c>
       <c r="C102">
-        <v>0.02543122227544561</v>
+        <v>0.09767398208780589</v>
       </c>
       <c r="D102">
-        <v>0.03938664172022849</v>
+        <v>-0.005178635515588719</v>
       </c>
       <c r="E102">
-        <v>0.1047410070430489</v>
+        <v>0.04192439718999368</v>
       </c>
       <c r="F102">
-        <v>0.05325114401622721</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.01456768215270698</v>
+      </c>
+      <c r="G102">
+        <v>-0.05202055194368779</v>
+      </c>
+      <c r="H102">
+        <v>-0.06054003113275194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04429157015216473</v>
+        <v>0.009823773272636288</v>
       </c>
       <c r="C103">
-        <v>-0.01313534532184928</v>
+        <v>0.00970880744254821</v>
       </c>
       <c r="D103">
-        <v>0.01611701676946872</v>
+        <v>-0.0004302215166451531</v>
       </c>
       <c r="E103">
-        <v>0.02274827160837963</v>
+        <v>-0.001108394382299952</v>
       </c>
       <c r="F103">
-        <v>-0.006232496667056122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02497694954035552</v>
+      </c>
+      <c r="G103">
+        <v>-0.005049475226526055</v>
+      </c>
+      <c r="H103">
+        <v>-0.003774910357822184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0852954118497824</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.0465402125666951</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9818177157235628</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03791327887250498</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.00437435422004215</v>
+      </c>
+      <c r="G104">
+        <v>0.04288408536875632</v>
+      </c>
+      <c r="H104">
+        <v>-0.1170486422597522</v>
       </c>
     </row>
   </sheetData>
